--- a/data/Table_4.1_Natural_Gas_Overview.xlsx
+++ b/data/Table_4.1_Natural_Gas_Overview.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2018 Monthly Energy Review</t>
+    <t>July 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 26, 2018</t>
+    <t>Release Date: July 28, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 28, 2018</t>
+    <t>Next Update: August 26, 2020</t>
   </si>
   <si>
     <t>Table 4.1 Natural Gas Overview</t>
@@ -482,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L556"/>
+  <dimension ref="A1:L580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -20222,19 +20222,19 @@
         <v>42370</v>
       </c>
       <c r="B529">
-        <v>2828.428</v>
+        <v>2823.104</v>
       </c>
       <c r="C529">
-        <v>2442.885</v>
+        <v>2435.375</v>
       </c>
       <c r="D529">
-        <v>155.816</v>
+        <v>155.035</v>
       </c>
       <c r="E529">
-        <v>2287.069</v>
+        <v>2280.34</v>
       </c>
       <c r="F529">
-        <v>4.905</v>
+        <v>4.904</v>
       </c>
       <c r="G529">
         <v>273.6</v>
@@ -20246,13 +20246,13 @@
         <v>105.079</v>
       </c>
       <c r="J529">
-        <v>741.2</v>
+        <v>741.143</v>
       </c>
       <c r="K529">
-        <v>-43.299</v>
+        <v>-39.772</v>
       </c>
       <c r="L529">
-        <v>3094.954</v>
+        <v>3091.695</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -20260,19 +20260,19 @@
         <v>42401</v>
       </c>
       <c r="B530">
-        <v>2656.151</v>
+        <v>2653.842</v>
       </c>
       <c r="C530">
-        <v>2314.623</v>
+        <v>2310.521</v>
       </c>
       <c r="D530">
-        <v>147.635</v>
+        <v>147.087</v>
       </c>
       <c r="E530">
-        <v>2166.988</v>
+        <v>2163.435</v>
       </c>
       <c r="F530">
-        <v>4.648</v>
+        <v>4.653</v>
       </c>
       <c r="G530">
         <v>251.775</v>
@@ -20284,13 +20284,13 @@
         <v>89.019</v>
       </c>
       <c r="J530">
-        <v>411.206</v>
+        <v>411.17</v>
       </c>
       <c r="K530">
-        <v>-16.96</v>
+        <v>-16.015</v>
       </c>
       <c r="L530">
-        <v>2654.9</v>
+        <v>2652.26</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -20298,16 +20298,16 @@
         <v>42430</v>
       </c>
       <c r="B531">
-        <v>2828.024</v>
+        <v>2824.983</v>
       </c>
       <c r="C531">
-        <v>2448.69</v>
+        <v>2441.976</v>
       </c>
       <c r="D531">
-        <v>156.186</v>
+        <v>155.455</v>
       </c>
       <c r="E531">
-        <v>2292.503</v>
+        <v>2286.521</v>
       </c>
       <c r="F531">
         <v>4.917</v>
@@ -20322,13 +20322,13 @@
         <v>45.849</v>
       </c>
       <c r="J531">
-        <v>52.746</v>
+        <v>52.727</v>
       </c>
       <c r="K531">
-        <v>-36.663</v>
+        <v>-33.717</v>
       </c>
       <c r="L531">
-        <v>2359.353</v>
+        <v>2356.298</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -20336,19 +20336,19 @@
         <v>42461</v>
       </c>
       <c r="B532">
-        <v>2680.613</v>
+        <v>2678.61</v>
       </c>
       <c r="C532">
-        <v>2366.297</v>
+        <v>2361.554</v>
       </c>
       <c r="D532">
-        <v>150.931</v>
+        <v>150.335</v>
       </c>
       <c r="E532">
-        <v>2215.366</v>
+        <v>2211.218</v>
       </c>
       <c r="F532">
-        <v>4.752</v>
+        <v>4.755</v>
       </c>
       <c r="G532">
         <v>241.317</v>
@@ -20360,13 +20360,13 @@
         <v>63.464</v>
       </c>
       <c r="J532">
-        <v>-170.78</v>
+        <v>-170.548</v>
       </c>
       <c r="K532">
-        <v>-25.744</v>
+        <v>-25.042</v>
       </c>
       <c r="L532">
-        <v>2087.058</v>
+        <v>2083.848</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -20374,19 +20374,19 @@
         <v>42491</v>
       </c>
       <c r="B533">
-        <v>2786.681</v>
+        <v>2767.844</v>
       </c>
       <c r="C533">
-        <v>2433.449</v>
+        <v>2412.475</v>
       </c>
       <c r="D533">
-        <v>155.214</v>
+        <v>153.577</v>
       </c>
       <c r="E533">
-        <v>2278.234</v>
+        <v>2258.898</v>
       </c>
       <c r="F533">
-        <v>4.886</v>
+        <v>4.858</v>
       </c>
       <c r="G533">
         <v>248.317</v>
@@ -20398,13 +20398,13 @@
         <v>60.043</v>
       </c>
       <c r="J533">
-        <v>-337.163</v>
+        <v>-336.845</v>
       </c>
       <c r="K533">
-        <v>-35.869</v>
+        <v>-21.156</v>
       </c>
       <c r="L533">
-        <v>1970.132</v>
+        <v>1965.799</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -20412,19 +20412,19 @@
         <v>42522</v>
       </c>
       <c r="B534">
-        <v>2636.14</v>
+        <v>2628.164</v>
       </c>
       <c r="C534">
-        <v>2322.854</v>
+        <v>2312.288</v>
       </c>
       <c r="D534">
-        <v>148.16</v>
+        <v>147.199</v>
       </c>
       <c r="E534">
-        <v>2174.694</v>
+        <v>2165.089</v>
       </c>
       <c r="F534">
-        <v>4.664</v>
+        <v>4.656</v>
       </c>
       <c r="G534">
         <v>241.885</v>
@@ -20436,13 +20436,13 @@
         <v>58.872</v>
       </c>
       <c r="J534">
-        <v>-229.1</v>
+        <v>-228.85</v>
       </c>
       <c r="K534">
-        <v>-4.67</v>
+        <v>0.888</v>
       </c>
       <c r="L534">
-        <v>2004.461</v>
+        <v>2000.656</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -20450,19 +20450,19 @@
         <v>42552</v>
       </c>
       <c r="B535">
-        <v>2730.488</v>
+        <v>2721.21</v>
       </c>
       <c r="C535">
-        <v>2420.694</v>
+        <v>2408.915</v>
       </c>
       <c r="D535">
-        <v>154.401</v>
+        <v>153.35</v>
       </c>
       <c r="E535">
-        <v>2266.293</v>
+        <v>2255.564</v>
       </c>
       <c r="F535">
-        <v>4.861</v>
+        <v>4.851</v>
       </c>
       <c r="G535">
         <v>265.022</v>
@@ -20474,13 +20474,13 @@
         <v>76.339</v>
       </c>
       <c r="J535">
-        <v>-139.128</v>
+        <v>-138.904</v>
       </c>
       <c r="K535">
-        <v>-17.237</v>
+        <v>-11.234</v>
       </c>
       <c r="L535">
-        <v>2191.128</v>
+        <v>2186.616</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -20488,19 +20488,19 @@
         <v>42583</v>
       </c>
       <c r="B536">
-        <v>2725.751</v>
+        <v>2722.631</v>
       </c>
       <c r="C536">
-        <v>2395.119</v>
+        <v>2389.813</v>
       </c>
       <c r="D536">
-        <v>152.77</v>
+        <v>152.134</v>
       </c>
       <c r="E536">
-        <v>2242.349</v>
+        <v>2237.678</v>
       </c>
       <c r="F536">
-        <v>4.81</v>
+        <v>4.812</v>
       </c>
       <c r="G536">
         <v>261.983</v>
@@ -20512,13 +20512,13 @@
         <v>47.757</v>
       </c>
       <c r="J536">
-        <v>-129.875</v>
+        <v>-129.65</v>
       </c>
       <c r="K536">
-        <v>47.672</v>
+        <v>47.777</v>
       </c>
       <c r="L536">
-        <v>2212.712</v>
+        <v>2208.375</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -20526,16 +20526,16 @@
         <v>42614</v>
       </c>
       <c r="B537">
-        <v>2630.104</v>
+        <v>2626.213</v>
       </c>
       <c r="C537">
-        <v>2303.65</v>
+        <v>2297.402</v>
       </c>
       <c r="D537">
-        <v>146.935</v>
+        <v>146.252</v>
       </c>
       <c r="E537">
-        <v>2156.714</v>
+        <v>2151.15</v>
       </c>
       <c r="F537">
         <v>4.626</v>
@@ -20550,13 +20550,13 @@
         <v>36.505</v>
       </c>
       <c r="J537">
-        <v>-269.895</v>
+        <v>-269.618</v>
       </c>
       <c r="K537">
-        <v>23.755</v>
+        <v>25.089</v>
       </c>
       <c r="L537">
-        <v>1951.705</v>
+        <v>1947.752</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -20564,19 +20564,19 @@
         <v>42644</v>
       </c>
       <c r="B538">
-        <v>2718.264</v>
+        <v>2720.187</v>
       </c>
       <c r="C538">
-        <v>2364.909</v>
+        <v>2364.679</v>
       </c>
       <c r="D538">
-        <v>150.843</v>
+        <v>150.534</v>
       </c>
       <c r="E538">
-        <v>2214.067</v>
+        <v>2214.145</v>
       </c>
       <c r="F538">
-        <v>4.749</v>
+        <v>4.762</v>
       </c>
       <c r="G538">
         <v>231.449</v>
@@ -20588,13 +20588,13 @@
         <v>54.983</v>
       </c>
       <c r="J538">
-        <v>-316.672</v>
+        <v>-316.367</v>
       </c>
       <c r="K538">
-        <v>-28.43</v>
+        <v>-32.32</v>
       </c>
       <c r="L538">
-        <v>1928.697</v>
+        <v>1925.203</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -20602,19 +20602,19 @@
         <v>42675</v>
       </c>
       <c r="B539">
-        <v>2672.624</v>
+        <v>2678.247</v>
       </c>
       <c r="C539">
-        <v>2309.723</v>
+        <v>2307.494</v>
       </c>
       <c r="D539">
-        <v>147.323</v>
+        <v>146.894</v>
       </c>
       <c r="E539">
-        <v>2162.4</v>
+        <v>2160.6</v>
       </c>
       <c r="F539">
-        <v>4.638</v>
+        <v>4.646</v>
       </c>
       <c r="G539">
         <v>231.044</v>
@@ -20626,13 +20626,13 @@
         <v>3.125</v>
       </c>
       <c r="J539">
-        <v>38.654</v>
+        <v>38.639</v>
       </c>
       <c r="K539">
-        <v>-45.96</v>
+        <v>-47.567</v>
       </c>
       <c r="L539">
-        <v>2162.858</v>
+        <v>2159.445</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -20640,19 +20640,19 @@
         <v>42705</v>
       </c>
       <c r="B540">
-        <v>2742.243</v>
+        <v>2746.543</v>
       </c>
       <c r="C540">
-        <v>2356.396</v>
+        <v>2357.556</v>
       </c>
       <c r="D540">
-        <v>150.3</v>
+        <v>150.081</v>
       </c>
       <c r="E540">
-        <v>2206.096</v>
+        <v>2207.475</v>
       </c>
       <c r="F540">
-        <v>4.732</v>
+        <v>4.747</v>
       </c>
       <c r="G540">
         <v>280.791</v>
@@ -20664,13 +20664,13 @@
         <v>29.955</v>
       </c>
       <c r="J540">
-        <v>687.562</v>
+        <v>687.508</v>
       </c>
       <c r="K540">
-        <v>-59.045</v>
+        <v>-63.412</v>
       </c>
       <c r="L540">
-        <v>2869.3</v>
+        <v>2866.273</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -20678,37 +20678,37 @@
         <v>42736</v>
       </c>
       <c r="B541">
-        <v>2726.954</v>
+        <v>2723.628</v>
       </c>
       <c r="C541">
-        <v>2339.155</v>
+        <v>2339.431</v>
       </c>
       <c r="D541">
-        <v>149.778</v>
+        <v>151.984</v>
       </c>
       <c r="E541">
-        <v>2189.377</v>
+        <v>2187.447</v>
       </c>
       <c r="F541">
-        <v>4.832</v>
+        <v>5.263</v>
       </c>
       <c r="G541">
         <v>291.656</v>
       </c>
       <c r="H541">
-        <v>271.868</v>
+        <v>269.96</v>
       </c>
       <c r="I541">
-        <v>19.789</v>
+        <v>21.696</v>
       </c>
       <c r="J541">
-        <v>674.69</v>
+        <v>687.268</v>
       </c>
       <c r="K541">
-        <v>10.419</v>
+        <v>13.163</v>
       </c>
       <c r="L541">
-        <v>2899.106</v>
+        <v>2914.837</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -20716,37 +20716,37 @@
         <v>42767</v>
       </c>
       <c r="B542">
-        <v>2503.737</v>
+        <v>2493.267</v>
       </c>
       <c r="C542">
-        <v>2147.988</v>
+        <v>2142.588</v>
       </c>
       <c r="D542">
-        <v>144.687</v>
+        <v>139.196</v>
       </c>
       <c r="E542">
-        <v>2003.301</v>
+        <v>2003.393</v>
       </c>
       <c r="F542">
-        <v>4.539</v>
+        <v>4.82</v>
       </c>
       <c r="G542">
         <v>254.597</v>
       </c>
       <c r="H542">
-        <v>254.946</v>
+        <v>253.227</v>
       </c>
       <c r="I542">
-        <v>-0.349</v>
+        <v>1.37</v>
       </c>
       <c r="J542">
-        <v>284.935</v>
+        <v>291.563</v>
       </c>
       <c r="K542">
-        <v>35.671</v>
+        <v>39.933</v>
       </c>
       <c r="L542">
-        <v>2328.096</v>
+        <v>2341.078</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -20754,37 +20754,37 @@
         <v>42795</v>
       </c>
       <c r="B543">
-        <v>2777.679</v>
+        <v>2797.117</v>
       </c>
       <c r="C543">
-        <v>2381.223</v>
+        <v>2425.799</v>
       </c>
       <c r="D543">
-        <v>162.55</v>
+        <v>157.595</v>
       </c>
       <c r="E543">
-        <v>2218.673</v>
+        <v>2268.204</v>
       </c>
       <c r="F543">
-        <v>4.841</v>
+        <v>5.457</v>
       </c>
       <c r="G543">
         <v>280.567</v>
       </c>
       <c r="H543">
-        <v>271.843</v>
+        <v>273.345</v>
       </c>
       <c r="I543">
-        <v>8.724</v>
+        <v>7.222</v>
       </c>
       <c r="J543">
-        <v>275.379</v>
+        <v>281.497</v>
       </c>
       <c r="K543">
-        <v>18.272</v>
+        <v>-38.117</v>
       </c>
       <c r="L543">
-        <v>2525.889</v>
+        <v>2524.263</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -20792,37 +20792,37 @@
         <v>42826</v>
       </c>
       <c r="B544">
-        <v>2681.68</v>
+        <v>2689.967</v>
       </c>
       <c r="C544">
-        <v>2308.058</v>
+        <v>2350.432</v>
       </c>
       <c r="D544">
-        <v>156.837</v>
+        <v>152.698</v>
       </c>
       <c r="E544">
-        <v>2151.221</v>
+        <v>2197.733</v>
       </c>
       <c r="F544">
-        <v>4.907</v>
+        <v>5.288</v>
       </c>
       <c r="G544">
         <v>238.279</v>
       </c>
       <c r="H544">
-        <v>247.251</v>
+        <v>242.424</v>
       </c>
       <c r="I544">
-        <v>-8.973</v>
+        <v>-4.146</v>
       </c>
       <c r="J544">
-        <v>-230.167</v>
+        <v>-235.891</v>
       </c>
       <c r="K544">
-        <v>7.184</v>
+        <v>-30.239</v>
       </c>
       <c r="L544">
-        <v>1924.173</v>
+        <v>1932.745</v>
       </c>
     </row>
     <row r="545" spans="1:12">
@@ -20830,37 +20830,37 @@
         <v>42856</v>
       </c>
       <c r="B545">
-        <v>2769.754</v>
+        <v>2778.965</v>
       </c>
       <c r="C545">
-        <v>2391.147</v>
+        <v>2428.739</v>
       </c>
       <c r="D545">
-        <v>165.817</v>
+        <v>157.786</v>
       </c>
       <c r="E545">
-        <v>2225.33</v>
+        <v>2270.953</v>
       </c>
       <c r="F545">
-        <v>2.906</v>
+        <v>5.464</v>
       </c>
       <c r="G545">
         <v>244.353</v>
       </c>
       <c r="H545">
-        <v>253.864</v>
+        <v>248.867</v>
       </c>
       <c r="I545">
-        <v>-9.511</v>
+        <v>-4.514</v>
       </c>
       <c r="J545">
-        <v>-340.73</v>
+        <v>-347.723</v>
       </c>
       <c r="K545">
-        <v>17.698</v>
+        <v>-31.894</v>
       </c>
       <c r="L545">
-        <v>1895.692</v>
+        <v>1892.286</v>
       </c>
     </row>
     <row r="546" spans="1:12">
@@ -20868,19 +20868,19 @@
         <v>42887</v>
       </c>
       <c r="B546">
-        <v>2681.604</v>
+        <v>2688.422</v>
       </c>
       <c r="C546">
-        <v>2340.784</v>
+        <v>2373.176</v>
       </c>
       <c r="D546">
-        <v>161.697</v>
+        <v>154.176</v>
       </c>
       <c r="E546">
-        <v>2179.087</v>
+        <v>2219</v>
       </c>
       <c r="F546">
-        <v>4.007</v>
+        <v>5.339</v>
       </c>
       <c r="G546">
         <v>239.805</v>
@@ -20892,13 +20892,13 @@
         <v>-13.517</v>
       </c>
       <c r="J546">
-        <v>-280.799</v>
+        <v>-287.064</v>
       </c>
       <c r="K546">
-        <v>21.082</v>
+        <v>-13.35</v>
       </c>
       <c r="L546">
-        <v>1909.86</v>
+        <v>1910.408</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -20906,37 +20906,37 @@
         <v>42917</v>
       </c>
       <c r="B547">
-        <v>2750.099</v>
+        <v>2753.997</v>
       </c>
       <c r="C547">
-        <v>2443.431</v>
+        <v>2477.573</v>
       </c>
       <c r="D547">
-        <v>167.884</v>
+        <v>160.958</v>
       </c>
       <c r="E547">
-        <v>2275.547</v>
+        <v>2316.614</v>
       </c>
       <c r="F547">
-        <v>4.942</v>
+        <v>5.574</v>
       </c>
       <c r="G547">
         <v>250.508</v>
       </c>
       <c r="H547">
-        <v>248.428</v>
+        <v>248.801</v>
       </c>
       <c r="I547">
-        <v>2.08</v>
+        <v>1.707</v>
       </c>
       <c r="J547">
-        <v>-149.975</v>
+        <v>-154.78</v>
       </c>
       <c r="K547">
-        <v>0.126</v>
+        <v>-27.236</v>
       </c>
       <c r="L547">
-        <v>2132.72</v>
+        <v>2141.879</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -20944,37 +20944,37 @@
         <v>42948</v>
       </c>
       <c r="B548">
-        <v>2764.143</v>
+        <v>2769.67</v>
       </c>
       <c r="C548">
-        <v>2443.703</v>
+        <v>2476.18</v>
       </c>
       <c r="D548">
-        <v>164.44</v>
+        <v>160.868</v>
       </c>
       <c r="E548">
-        <v>2279.263</v>
+        <v>2315.312</v>
       </c>
       <c r="F548">
-        <v>4.834</v>
+        <v>5.57</v>
       </c>
       <c r="G548">
         <v>247.888</v>
       </c>
       <c r="H548">
-        <v>246.919</v>
+        <v>247.302</v>
       </c>
       <c r="I548">
-        <v>0.969</v>
+        <v>0.586</v>
       </c>
       <c r="J548">
-        <v>-195.619</v>
+        <v>-201.367</v>
       </c>
       <c r="K548">
-        <v>15.589</v>
+        <v>-25.868</v>
       </c>
       <c r="L548">
-        <v>2105.036</v>
+        <v>2094.234</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -20982,37 +20982,37 @@
         <v>42979</v>
       </c>
       <c r="B549">
-        <v>2757.416</v>
+        <v>2763.285</v>
       </c>
       <c r="C549">
-        <v>2408.242</v>
+        <v>2438.213</v>
       </c>
       <c r="D549">
-        <v>157.957</v>
+        <v>158.401</v>
       </c>
       <c r="E549">
-        <v>2250.285</v>
+        <v>2279.811</v>
       </c>
       <c r="F549">
-        <v>5.249</v>
+        <v>5.485</v>
       </c>
       <c r="G549">
-        <v>229.482</v>
+        <v>229.444</v>
       </c>
       <c r="H549">
-        <v>250.28</v>
+        <v>248.916</v>
       </c>
       <c r="I549">
-        <v>-20.798</v>
+        <v>-19.472</v>
       </c>
       <c r="J549">
-        <v>-316.535</v>
+        <v>-323.349</v>
       </c>
       <c r="K549">
-        <v>4.715</v>
+        <v>-22.242</v>
       </c>
       <c r="L549">
-        <v>1922.914</v>
+        <v>1920.233</v>
       </c>
     </row>
     <row r="550" spans="1:12">
@@ -21020,37 +21020,37 @@
         <v>43009</v>
       </c>
       <c r="B550">
-        <v>2888.227</v>
+        <v>2911.373</v>
       </c>
       <c r="C550">
-        <v>2506.57</v>
+        <v>2564.255</v>
       </c>
       <c r="D550">
-        <v>177.252</v>
+        <v>166.59</v>
       </c>
       <c r="E550">
-        <v>2329.318</v>
+        <v>2397.665</v>
       </c>
       <c r="F550">
-        <v>4.233</v>
+        <v>5.769</v>
       </c>
       <c r="G550">
-        <v>243.985</v>
+        <v>241.338</v>
       </c>
       <c r="H550">
-        <v>281.359</v>
+        <v>279.775</v>
       </c>
       <c r="I550">
-        <v>-37.374</v>
+        <v>-38.437</v>
       </c>
       <c r="J550">
-        <v>-247.451</v>
+        <v>-253.596</v>
       </c>
       <c r="K550">
-        <v>-16.249</v>
+        <v>-79.706</v>
       </c>
       <c r="L550">
-        <v>2032.477</v>
+        <v>2031.694</v>
       </c>
     </row>
     <row r="551" spans="1:12">
@@ -21058,37 +21058,37 @@
         <v>43040</v>
       </c>
       <c r="B551">
-        <v>2875.41</v>
+        <v>2897.003</v>
       </c>
       <c r="C551">
-        <v>2496.887</v>
+        <v>2558.771</v>
       </c>
       <c r="D551">
-        <v>175.754</v>
+        <v>166.233</v>
       </c>
       <c r="E551">
-        <v>2321.134</v>
+        <v>2392.537</v>
       </c>
       <c r="F551">
-        <v>5.566</v>
+        <v>5.756</v>
       </c>
       <c r="G551">
-        <v>243.681</v>
+        <v>240.314</v>
       </c>
       <c r="H551">
-        <v>288.354</v>
+        <v>287.727</v>
       </c>
       <c r="I551">
-        <v>-44.673</v>
+        <v>-47.413</v>
       </c>
       <c r="J551">
-        <v>85.27</v>
+        <v>90.456</v>
       </c>
       <c r="K551">
-        <v>-20.713</v>
+        <v>-83.515</v>
       </c>
       <c r="L551">
-        <v>2346.584</v>
+        <v>2357.822</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -21096,37 +21096,37 @@
         <v>43070</v>
       </c>
       <c r="B552">
-        <v>3001.122</v>
+        <v>3025.419</v>
       </c>
       <c r="C552">
-        <v>2606.842</v>
+        <v>2628.395</v>
       </c>
       <c r="D552">
-        <v>175.088</v>
+        <v>170.757</v>
       </c>
       <c r="E552">
-        <v>2431.754</v>
+        <v>2457.638</v>
       </c>
       <c r="F552">
-        <v>5.271</v>
+        <v>5.913</v>
       </c>
       <c r="G552">
-        <v>277.59</v>
+        <v>274.478</v>
       </c>
       <c r="H552">
-        <v>299.424</v>
+        <v>300.138</v>
       </c>
       <c r="I552">
-        <v>-21.834</v>
+        <v>-25.661</v>
       </c>
       <c r="J552">
-        <v>694.433</v>
+        <v>707.086</v>
       </c>
       <c r="K552">
-        <v>-42.006</v>
+        <v>-60.561</v>
       </c>
       <c r="L552">
-        <v>3067.618</v>
+        <v>3084.415</v>
       </c>
     </row>
     <row r="553" spans="1:12">
@@ -21134,37 +21134,37 @@
         <v>43101</v>
       </c>
       <c r="B553">
-        <v>2957.944</v>
+        <v>2986.315</v>
       </c>
       <c r="C553">
-        <v>2565.739</v>
+        <v>2612.489</v>
       </c>
       <c r="D553">
-        <v>169.874</v>
+        <v>177.857</v>
       </c>
       <c r="E553">
-        <v>2395.865</v>
+        <v>2434.632</v>
       </c>
       <c r="F553">
-        <v>5.281</v>
+        <v>5.519</v>
       </c>
       <c r="G553">
-        <v>303.557</v>
+        <v>299.891</v>
       </c>
       <c r="H553">
-        <v>300.997</v>
+        <v>300.234</v>
       </c>
       <c r="I553">
-        <v>2.56</v>
+        <v>-0.342</v>
       </c>
       <c r="J553">
-        <v>896.092</v>
+        <v>912.71</v>
       </c>
       <c r="K553">
-        <v>17.214</v>
+        <v>-17.434</v>
       </c>
       <c r="L553">
-        <v>3317.012</v>
+        <v>3335.085</v>
       </c>
     </row>
     <row r="554" spans="1:12">
@@ -21172,37 +21172,37 @@
         <v>43132</v>
       </c>
       <c r="B554">
-        <v>2722.296</v>
+        <v>2746.378</v>
       </c>
       <c r="C554">
-        <v>2365.443</v>
+        <v>2410.396</v>
       </c>
       <c r="D554">
-        <v>161.37</v>
+        <v>164.099</v>
       </c>
       <c r="E554">
-        <v>2204.073</v>
+        <v>2246.298</v>
       </c>
       <c r="F554">
-        <v>5.281</v>
+        <v>5.092</v>
       </c>
       <c r="G554">
-        <v>240.661</v>
+        <v>237.417</v>
       </c>
       <c r="H554">
-        <v>276.236</v>
+        <v>275.652</v>
       </c>
       <c r="I554">
-        <v>-35.575</v>
+        <v>-38.235</v>
       </c>
       <c r="J554">
-        <v>466.817</v>
+        <v>476.545</v>
       </c>
       <c r="K554">
-        <v>29.817</v>
+        <v>16.32</v>
       </c>
       <c r="L554">
-        <v>2670.413</v>
+        <v>2706.021</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -21210,37 +21210,37 @@
         <v>43160</v>
       </c>
       <c r="B555">
-        <v>3049.633</v>
+        <v>3084.539</v>
       </c>
       <c r="C555">
-        <v>2654.258</v>
+        <v>2720.684</v>
       </c>
       <c r="D555">
-        <v>186.253</v>
+        <v>185.223</v>
       </c>
       <c r="E555">
-        <v>2468.005</v>
+        <v>2535.461</v>
       </c>
       <c r="F555">
-        <v>5.009</v>
+        <v>5.748</v>
       </c>
       <c r="G555">
-        <v>274.286</v>
+        <v>270.762</v>
       </c>
       <c r="H555">
-        <v>289.92</v>
+        <v>291.468</v>
       </c>
       <c r="I555">
-        <v>-15.634</v>
+        <v>-20.705</v>
       </c>
       <c r="J555">
-        <v>284.892</v>
+        <v>292.247</v>
       </c>
       <c r="K555">
-        <v>21.83</v>
+        <v>-20.036</v>
       </c>
       <c r="L555">
-        <v>2764.102</v>
+        <v>2792.715</v>
       </c>
     </row>
     <row r="556" spans="1:12">
@@ -21248,37 +21248,949 @@
         <v>43191</v>
       </c>
       <c r="B556">
-        <v>2955.279</v>
+        <v>2979.322</v>
       </c>
       <c r="C556">
-        <v>2573.646</v>
+        <v>2617.048</v>
       </c>
       <c r="D556">
-        <v>183.67</v>
+        <v>178.167</v>
       </c>
       <c r="E556">
-        <v>2389.976</v>
+        <v>2438.88</v>
       </c>
       <c r="F556">
-        <v>3.98</v>
+        <v>5.529</v>
       </c>
       <c r="G556">
-        <v>243.789</v>
+        <v>242.264</v>
       </c>
       <c r="H556">
-        <v>277.601</v>
+        <v>278.941</v>
       </c>
       <c r="I556">
-        <v>-33.812</v>
+        <v>-36.677</v>
       </c>
       <c r="J556">
-        <v>-31.764</v>
+        <v>-37.152</v>
       </c>
       <c r="K556">
-        <v>12.6</v>
+        <v>-24.193</v>
       </c>
       <c r="L556">
-        <v>2340.979</v>
+        <v>2346.387</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12">
+      <c r="A557" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B557">
+        <v>3097.136</v>
+      </c>
+      <c r="C557">
+        <v>2729.555</v>
+      </c>
+      <c r="D557">
+        <v>185.827</v>
+      </c>
+      <c r="E557">
+        <v>2543.728</v>
+      </c>
+      <c r="F557">
+        <v>5.766</v>
+      </c>
+      <c r="G557">
+        <v>227.168</v>
+      </c>
+      <c r="H557">
+        <v>272.116</v>
+      </c>
+      <c r="I557">
+        <v>-44.947</v>
+      </c>
+      <c r="J557">
+        <v>-433.354</v>
+      </c>
+      <c r="K557">
+        <v>-20.237</v>
+      </c>
+      <c r="L557">
+        <v>2050.956</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12">
+      <c r="A558" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B558">
+        <v>2961.223</v>
+      </c>
+      <c r="C558">
+        <v>2645.313</v>
+      </c>
+      <c r="D558">
+        <v>180.092</v>
+      </c>
+      <c r="E558">
+        <v>2465.221</v>
+      </c>
+      <c r="F558">
+        <v>5.589</v>
+      </c>
+      <c r="G558">
+        <v>228.469</v>
+      </c>
+      <c r="H558">
+        <v>261.995</v>
+      </c>
+      <c r="I558">
+        <v>-33.526</v>
+      </c>
+      <c r="J558">
+        <v>-357.735</v>
+      </c>
+      <c r="K558">
+        <v>-20.792</v>
+      </c>
+      <c r="L558">
+        <v>2058.756</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12">
+      <c r="A559" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B559">
+        <v>3096.945</v>
+      </c>
+      <c r="C559">
+        <v>2758.842</v>
+      </c>
+      <c r="D559">
+        <v>187.821</v>
+      </c>
+      <c r="E559">
+        <v>2571.021</v>
+      </c>
+      <c r="F559">
+        <v>5.828</v>
+      </c>
+      <c r="G559">
+        <v>247.012</v>
+      </c>
+      <c r="H559">
+        <v>305.997</v>
+      </c>
+      <c r="I559">
+        <v>-58.986</v>
+      </c>
+      <c r="J559">
+        <v>-193.99</v>
+      </c>
+      <c r="K559">
+        <v>20.861</v>
+      </c>
+      <c r="L559">
+        <v>2344.735</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12">
+      <c r="A560" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B560">
+        <v>3165.158</v>
+      </c>
+      <c r="C560">
+        <v>2814.741</v>
+      </c>
+      <c r="D560">
+        <v>191.626</v>
+      </c>
+      <c r="E560">
+        <v>2623.114</v>
+      </c>
+      <c r="F560">
+        <v>5.946</v>
+      </c>
+      <c r="G560">
+        <v>237.025</v>
+      </c>
+      <c r="H560">
+        <v>311.449</v>
+      </c>
+      <c r="I560">
+        <v>-74.424</v>
+      </c>
+      <c r="J560">
+        <v>-243.936</v>
+      </c>
+      <c r="K560">
+        <v>-2.853</v>
+      </c>
+      <c r="L560">
+        <v>2307.848</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12">
+      <c r="A561" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B561">
+        <v>3141.861</v>
+      </c>
+      <c r="C561">
+        <v>2796.916</v>
+      </c>
+      <c r="D561">
+        <v>190.413</v>
+      </c>
+      <c r="E561">
+        <v>2606.504</v>
+      </c>
+      <c r="F561">
+        <v>5.909</v>
+      </c>
+      <c r="G561">
+        <v>214.074</v>
+      </c>
+      <c r="H561">
+        <v>301.746</v>
+      </c>
+      <c r="I561">
+        <v>-87.672</v>
+      </c>
+      <c r="J561">
+        <v>-343.829</v>
+      </c>
+      <c r="K561">
+        <v>-29.274</v>
+      </c>
+      <c r="L561">
+        <v>2151.637</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12">
+      <c r="A562" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B562">
+        <v>3270.299</v>
+      </c>
+      <c r="C562">
+        <v>2895.137</v>
+      </c>
+      <c r="D562">
+        <v>197.099</v>
+      </c>
+      <c r="E562">
+        <v>2698.038</v>
+      </c>
+      <c r="F562">
+        <v>6.116</v>
+      </c>
+      <c r="G562">
+        <v>215.128</v>
+      </c>
+      <c r="H562">
+        <v>306.646</v>
+      </c>
+      <c r="I562">
+        <v>-91.518</v>
+      </c>
+      <c r="J562">
+        <v>-299.397</v>
+      </c>
+      <c r="K562">
+        <v>-34.007</v>
+      </c>
+      <c r="L562">
+        <v>2279.232</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12">
+      <c r="A563" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B563">
+        <v>3234.886</v>
+      </c>
+      <c r="C563">
+        <v>2870.234</v>
+      </c>
+      <c r="D563">
+        <v>195.404</v>
+      </c>
+      <c r="E563">
+        <v>2674.83</v>
+      </c>
+      <c r="F563">
+        <v>6.064</v>
+      </c>
+      <c r="G563">
+        <v>212.486</v>
+      </c>
+      <c r="H563">
+        <v>337.716</v>
+      </c>
+      <c r="I563">
+        <v>-125.229</v>
+      </c>
+      <c r="J563">
+        <v>211.595</v>
+      </c>
+      <c r="K563">
+        <v>-57.222</v>
+      </c>
+      <c r="L563">
+        <v>2710.038</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12">
+      <c r="A564" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B564">
+        <v>3365.311</v>
+      </c>
+      <c r="C564">
+        <v>2951.941</v>
+      </c>
+      <c r="D564">
+        <v>200.967</v>
+      </c>
+      <c r="E564">
+        <v>2750.975</v>
+      </c>
+      <c r="F564">
+        <v>6.236</v>
+      </c>
+      <c r="G564">
+        <v>257.148</v>
+      </c>
+      <c r="H564">
+        <v>363.458</v>
+      </c>
+      <c r="I564">
+        <v>-106.31</v>
+      </c>
+      <c r="J564">
+        <v>328.545</v>
+      </c>
+      <c r="K564">
+        <v>13.765</v>
+      </c>
+      <c r="L564">
+        <v>2993.211</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12">
+      <c r="A565" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B565">
+        <v>3357.37</v>
+      </c>
+      <c r="C565">
+        <v>2951.785</v>
+      </c>
+      <c r="D565">
+        <v>204.646</v>
+      </c>
+      <c r="E565">
+        <v>2747.14</v>
+      </c>
+      <c r="F565">
+        <v>5.127</v>
+      </c>
+      <c r="G565">
+        <v>290.839</v>
+      </c>
+      <c r="H565">
+        <v>364.787</v>
+      </c>
+      <c r="I565">
+        <v>-73.948</v>
+      </c>
+      <c r="J565">
+        <v>708.614</v>
+      </c>
+      <c r="K565">
+        <v>12.852</v>
+      </c>
+      <c r="L565">
+        <v>3399.783</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12">
+      <c r="A566" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B566">
+        <v>3050.698</v>
+      </c>
+      <c r="C566">
+        <v>2694.335</v>
+      </c>
+      <c r="D566">
+        <v>190.795</v>
+      </c>
+      <c r="E566">
+        <v>2503.539</v>
+      </c>
+      <c r="F566">
+        <v>6.244</v>
+      </c>
+      <c r="G566">
+        <v>233.317</v>
+      </c>
+      <c r="H566">
+        <v>329.954</v>
+      </c>
+      <c r="I566">
+        <v>-96.638</v>
+      </c>
+      <c r="J566">
+        <v>568.145</v>
+      </c>
+      <c r="K566">
+        <v>17.695</v>
+      </c>
+      <c r="L566">
+        <v>2998.986</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12">
+      <c r="A567" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B567">
+        <v>3387.137</v>
+      </c>
+      <c r="C567">
+        <v>3000.84</v>
+      </c>
+      <c r="D567">
+        <v>213.078</v>
+      </c>
+      <c r="E567">
+        <v>2787.763</v>
+      </c>
+      <c r="F567">
+        <v>6.385</v>
+      </c>
+      <c r="G567">
+        <v>252.989</v>
+      </c>
+      <c r="H567">
+        <v>373.539</v>
+      </c>
+      <c r="I567">
+        <v>-120.55</v>
+      </c>
+      <c r="J567">
+        <v>245.243</v>
+      </c>
+      <c r="K567">
+        <v>-19.075</v>
+      </c>
+      <c r="L567">
+        <v>2899.765</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12">
+      <c r="A568" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B568">
+        <v>3307.221</v>
+      </c>
+      <c r="C568">
+        <v>2919.841</v>
+      </c>
+      <c r="D568">
+        <v>207.694</v>
+      </c>
+      <c r="E568">
+        <v>2712.147</v>
+      </c>
+      <c r="F568">
+        <v>5.313</v>
+      </c>
+      <c r="G568">
+        <v>206.559</v>
+      </c>
+      <c r="H568">
+        <v>338.213</v>
+      </c>
+      <c r="I568">
+        <v>-131.654</v>
+      </c>
+      <c r="J568">
+        <v>-382.067</v>
+      </c>
+      <c r="K568">
+        <v>-2.786</v>
+      </c>
+      <c r="L568">
+        <v>2200.953</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12">
+      <c r="A569" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B569">
+        <v>3392.263</v>
+      </c>
+      <c r="C569">
+        <v>3003.926</v>
+      </c>
+      <c r="D569">
+        <v>216.366</v>
+      </c>
+      <c r="E569">
+        <v>2787.56</v>
+      </c>
+      <c r="F569">
+        <v>3.629</v>
+      </c>
+      <c r="G569">
+        <v>207.651</v>
+      </c>
+      <c r="H569">
+        <v>368.568</v>
+      </c>
+      <c r="I569">
+        <v>-160.917</v>
+      </c>
+      <c r="J569">
+        <v>-471.898</v>
+      </c>
+      <c r="K569">
+        <v>-37.468</v>
+      </c>
+      <c r="L569">
+        <v>2120.906</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12">
+      <c r="A570" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B570">
+        <v>3298.699</v>
+      </c>
+      <c r="C570">
+        <v>2943.471</v>
+      </c>
+      <c r="D570">
+        <v>207.516</v>
+      </c>
+      <c r="E570">
+        <v>2735.955</v>
+      </c>
+      <c r="F570">
+        <v>5.531</v>
+      </c>
+      <c r="G570">
+        <v>201.163</v>
+      </c>
+      <c r="H570">
+        <v>360.226</v>
+      </c>
+      <c r="I570">
+        <v>-159.063</v>
+      </c>
+      <c r="J570">
+        <v>-431.26</v>
+      </c>
+      <c r="K570">
+        <v>-35.974</v>
+      </c>
+      <c r="L570">
+        <v>2115.19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12">
+      <c r="A571" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B571">
+        <v>3383.779</v>
+      </c>
+      <c r="C571">
+        <v>3039.774</v>
+      </c>
+      <c r="D571">
+        <v>210.176</v>
+      </c>
+      <c r="E571">
+        <v>2829.598</v>
+      </c>
+      <c r="F571">
+        <v>5.004</v>
+      </c>
+      <c r="G571">
+        <v>230.407</v>
+      </c>
+      <c r="H571">
+        <v>393.4</v>
+      </c>
+      <c r="I571">
+        <v>-162.993</v>
+      </c>
+      <c r="J571">
+        <v>-254.094</v>
+      </c>
+      <c r="K571">
+        <v>-10.302</v>
+      </c>
+      <c r="L571">
+        <v>2407.213</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12">
+      <c r="A572" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B572">
+        <v>3444.752</v>
+      </c>
+      <c r="C572">
+        <v>3105.344</v>
+      </c>
+      <c r="D572">
+        <v>212.547</v>
+      </c>
+      <c r="E572">
+        <v>2892.797</v>
+      </c>
+      <c r="F572">
+        <v>4.864</v>
+      </c>
+      <c r="G572">
+        <v>220.076</v>
+      </c>
+      <c r="H572">
+        <v>384.983</v>
+      </c>
+      <c r="I572">
+        <v>-164.907</v>
+      </c>
+      <c r="J572">
+        <v>-285.647</v>
+      </c>
+      <c r="K572">
+        <v>-10.194</v>
+      </c>
+      <c r="L572">
+        <v>2436.913</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12">
+      <c r="A573" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B573">
+        <v>3400.527</v>
+      </c>
+      <c r="C573">
+        <v>3046.751</v>
+      </c>
+      <c r="D573">
+        <v>215.081</v>
+      </c>
+      <c r="E573">
+        <v>2831.67</v>
+      </c>
+      <c r="F573">
+        <v>4.187</v>
+      </c>
+      <c r="G573">
+        <v>208.286</v>
+      </c>
+      <c r="H573">
+        <v>394.499</v>
+      </c>
+      <c r="I573">
+        <v>-186.213</v>
+      </c>
+      <c r="J573">
+        <v>-419.15</v>
+      </c>
+      <c r="K573">
+        <v>-14.341</v>
+      </c>
+      <c r="L573">
+        <v>2216.155</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12">
+      <c r="A574" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B574">
+        <v>3577.153</v>
+      </c>
+      <c r="C574">
+        <v>3193.166</v>
+      </c>
+      <c r="D574">
+        <v>223.928</v>
+      </c>
+      <c r="E574">
+        <v>2969.238</v>
+      </c>
+      <c r="F574">
+        <v>4.539</v>
+      </c>
+      <c r="G574">
+        <v>210.537</v>
+      </c>
+      <c r="H574">
+        <v>425.44</v>
+      </c>
+      <c r="I574">
+        <v>-214.903</v>
+      </c>
+      <c r="J574">
+        <v>-345.754</v>
+      </c>
+      <c r="K574">
+        <v>-85.832</v>
+      </c>
+      <c r="L574">
+        <v>2327.289</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12">
+      <c r="A575" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B575">
+        <v>3498.543</v>
+      </c>
+      <c r="C575">
+        <v>3102.924</v>
+      </c>
+      <c r="D575">
+        <v>215.468</v>
+      </c>
+      <c r="E575">
+        <v>2887.457</v>
+      </c>
+      <c r="F575">
+        <v>5.125</v>
+      </c>
+      <c r="G575">
+        <v>223.765</v>
+      </c>
+      <c r="H575">
+        <v>441.362</v>
+      </c>
+      <c r="I575">
+        <v>-217.597</v>
+      </c>
+      <c r="J575">
+        <v>149.678</v>
+      </c>
+      <c r="K575">
+        <v>-71.834</v>
+      </c>
+      <c r="L575">
+        <v>2752.828</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12">
+      <c r="A576" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B576">
+        <v>3606.346</v>
+      </c>
+      <c r="C576">
+        <v>3194.898</v>
+      </c>
+      <c r="D576">
+        <v>222.716</v>
+      </c>
+      <c r="E576">
+        <v>2972.182</v>
+      </c>
+      <c r="F576">
+        <v>5.537</v>
+      </c>
+      <c r="G576">
+        <v>256.053</v>
+      </c>
+      <c r="H576">
+        <v>481.006</v>
+      </c>
+      <c r="I576">
+        <v>-224.953</v>
+      </c>
+      <c r="J576">
+        <v>418.47</v>
+      </c>
+      <c r="K576">
+        <v>-32.87</v>
+      </c>
+      <c r="L576">
+        <v>3138.365</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12">
+      <c r="A577" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B577">
+        <v>3593.508</v>
+      </c>
+      <c r="C577">
+        <v>3172.003</v>
+      </c>
+      <c r="D577">
+        <v>233.649</v>
+      </c>
+      <c r="E577">
+        <v>2938.354</v>
+      </c>
+      <c r="F577">
+        <v>5.685</v>
+      </c>
+      <c r="G577">
+        <v>262.122</v>
+      </c>
+      <c r="H577">
+        <v>509.838</v>
+      </c>
+      <c r="I577">
+        <v>-247.716</v>
+      </c>
+      <c r="J577">
+        <v>570.595</v>
+      </c>
+      <c r="K577">
+        <v>21.685</v>
+      </c>
+      <c r="L577">
+        <v>3288.604</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12">
+      <c r="A578" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B578">
+        <v>3345.439</v>
+      </c>
+      <c r="C578">
+        <v>2949.884</v>
+      </c>
+      <c r="D578">
+        <v>207.916</v>
+      </c>
+      <c r="E578">
+        <v>2741.968</v>
+      </c>
+      <c r="F578">
+        <v>6.209</v>
+      </c>
+      <c r="G578">
+        <v>238.163</v>
+      </c>
+      <c r="H578">
+        <v>453.798</v>
+      </c>
+      <c r="I578">
+        <v>-215.635</v>
+      </c>
+      <c r="J578">
+        <v>535.469</v>
+      </c>
+      <c r="K578">
+        <v>-32.973</v>
+      </c>
+      <c r="L578">
+        <v>3035.038</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12">
+      <c r="A579" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B579">
+        <v>3562.063</v>
+      </c>
+      <c r="C579">
+        <v>3153.66</v>
+      </c>
+      <c r="D579">
+        <v>234.882</v>
+      </c>
+      <c r="E579">
+        <v>2918.778</v>
+      </c>
+      <c r="F579">
+        <v>5.809</v>
+      </c>
+      <c r="G579">
+        <v>217.087</v>
+      </c>
+      <c r="H579">
+        <v>496.909</v>
+      </c>
+      <c r="I579">
+        <v>-279.822</v>
+      </c>
+      <c r="J579">
+        <v>49.134</v>
+      </c>
+      <c r="K579">
+        <v>14.414</v>
+      </c>
+      <c r="L579">
+        <v>2708.313</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12">
+      <c r="A580" s="6">
+        <v>43922</v>
+      </c>
+      <c r="B580">
+        <v>3368.077</v>
+      </c>
+      <c r="C580">
+        <v>2985.903</v>
+      </c>
+      <c r="D580">
+        <v>213.528</v>
+      </c>
+      <c r="E580">
+        <v>2772.375</v>
+      </c>
+      <c r="F580">
+        <v>5.729</v>
+      </c>
+      <c r="G580">
+        <v>193.28</v>
+      </c>
+      <c r="H580">
+        <v>420.333</v>
+      </c>
+      <c r="I580">
+        <v>-227.053</v>
+      </c>
+      <c r="J580">
+        <v>-305.362</v>
+      </c>
+      <c r="K580">
+        <v>1.55</v>
+      </c>
+      <c r="L580">
+        <v>2247.239</v>
       </c>
     </row>
   </sheetData>
@@ -21305,7 +22217,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -23983,16 +24895,16 @@
         <v>2016</v>
       </c>
       <c r="B80">
-        <v>32635.511</v>
+        <v>32591.578</v>
       </c>
       <c r="C80">
-        <v>28479.288</v>
+        <v>28400.049</v>
       </c>
       <c r="D80">
-        <v>1816.514</v>
+        <v>1807.934</v>
       </c>
       <c r="E80">
-        <v>26662.774</v>
+        <v>26592.115</v>
       </c>
       <c r="F80">
         <v>57.188</v>
@@ -24007,13 +24919,13 @@
         <v>670.991</v>
       </c>
       <c r="J80">
-        <v>338.757</v>
+        <v>340.405</v>
       </c>
       <c r="K80">
-        <v>-242.45</v>
+        <v>-216.479</v>
       </c>
       <c r="L80">
-        <v>27487.26</v>
+        <v>27444.22</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -24021,37 +24933,113 @@
         <v>2017</v>
       </c>
       <c r="B81">
-        <v>33177.826</v>
+        <v>33292.113</v>
       </c>
       <c r="C81">
-        <v>28814.028</v>
+        <v>29203.55</v>
       </c>
       <c r="D81">
-        <v>1959.74</v>
+        <v>1897.242</v>
       </c>
       <c r="E81">
-        <v>26854.288</v>
+        <v>27306.308</v>
       </c>
       <c r="F81">
-        <v>56.128</v>
+        <v>65.696</v>
       </c>
       <c r="G81">
-        <v>3042.391</v>
+        <v>3033.226</v>
       </c>
       <c r="H81">
-        <v>3167.857</v>
+        <v>3153.804</v>
       </c>
       <c r="I81">
-        <v>-125.466</v>
+        <v>-120.578</v>
       </c>
       <c r="J81">
-        <v>253.43</v>
+        <v>254.1</v>
       </c>
       <c r="K81">
-        <v>51.786</v>
+        <v>-359.632</v>
       </c>
       <c r="L81">
-        <v>27090.166</v>
+        <v>27145.893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B82">
+        <v>37129.374</v>
+      </c>
+      <c r="C82">
+        <v>32823.295</v>
+      </c>
+      <c r="D82">
+        <v>2234.593</v>
+      </c>
+      <c r="E82">
+        <v>30588.702</v>
+      </c>
+      <c r="F82">
+        <v>69.343</v>
+      </c>
+      <c r="G82">
+        <v>2888.847</v>
+      </c>
+      <c r="H82">
+        <v>3607.418</v>
+      </c>
+      <c r="I82">
+        <v>-718.571</v>
+      </c>
+      <c r="J82">
+        <v>312.251</v>
+      </c>
+      <c r="K82">
+        <v>-175.102</v>
+      </c>
+      <c r="L82">
+        <v>30076.622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B83">
+        <v>40704.488</v>
+      </c>
+      <c r="C83">
+        <v>36197.056</v>
+      </c>
+      <c r="D83">
+        <v>2540.01</v>
+      </c>
+      <c r="E83">
+        <v>33657.046</v>
+      </c>
+      <c r="F83">
+        <v>61.483</v>
+      </c>
+      <c r="G83">
+        <v>2741.641</v>
+      </c>
+      <c r="H83">
+        <v>4655.977</v>
+      </c>
+      <c r="I83">
+        <v>-1914.336</v>
+      </c>
+      <c r="J83">
+        <v>-499.719</v>
+      </c>
+      <c r="K83">
+        <v>-290.129</v>
+      </c>
+      <c r="L83">
+        <v>31014.345</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table_4.1_Natural_Gas_Overview.xlsx
+++ b/data/Table_4.1_Natural_Gas_Overview.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 4.1 Natural Gas Overview</t>
@@ -482,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L580"/>
+  <dimension ref="A1:L581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -21950,16 +21950,16 @@
         <v>210.537</v>
       </c>
       <c r="H574">
-        <v>425.44</v>
+        <v>425.775</v>
       </c>
       <c r="I574">
-        <v>-214.903</v>
+        <v>-215.237</v>
       </c>
       <c r="J574">
         <v>-345.754</v>
       </c>
       <c r="K574">
-        <v>-85.832</v>
+        <v>-85.497</v>
       </c>
       <c r="L574">
         <v>2327.289</v>
@@ -22064,16 +22064,16 @@
         <v>262.122</v>
       </c>
       <c r="H577">
-        <v>509.838</v>
+        <v>509.843</v>
       </c>
       <c r="I577">
-        <v>-247.716</v>
+        <v>-247.721</v>
       </c>
       <c r="J577">
         <v>570.595</v>
       </c>
       <c r="K577">
-        <v>21.685</v>
+        <v>21.69</v>
       </c>
       <c r="L577">
         <v>3288.604</v>
@@ -22090,13 +22090,13 @@
         <v>2949.884</v>
       </c>
       <c r="D578">
-        <v>207.916</v>
+        <v>211.954</v>
       </c>
       <c r="E578">
-        <v>2741.968</v>
+        <v>2737.93</v>
       </c>
       <c r="F578">
-        <v>6.209</v>
+        <v>6.206</v>
       </c>
       <c r="G578">
         <v>238.163</v>
@@ -22111,7 +22111,7 @@
         <v>535.469</v>
       </c>
       <c r="K578">
-        <v>-32.973</v>
+        <v>-28.932</v>
       </c>
       <c r="L578">
         <v>3035.038</v>
@@ -22122,37 +22122,37 @@
         <v>43891</v>
       </c>
       <c r="B579">
-        <v>3562.063</v>
+        <v>3565.004</v>
       </c>
       <c r="C579">
-        <v>3153.66</v>
+        <v>3156.571</v>
       </c>
       <c r="D579">
         <v>234.882</v>
       </c>
       <c r="E579">
-        <v>2918.778</v>
+        <v>2921.689</v>
       </c>
       <c r="F579">
-        <v>5.809</v>
+        <v>5.811</v>
       </c>
       <c r="G579">
         <v>217.087</v>
       </c>
       <c r="H579">
-        <v>496.909</v>
+        <v>496.989</v>
       </c>
       <c r="I579">
-        <v>-279.822</v>
+        <v>-279.902</v>
       </c>
       <c r="J579">
         <v>49.134</v>
       </c>
       <c r="K579">
-        <v>14.414</v>
+        <v>11.735</v>
       </c>
       <c r="L579">
-        <v>2708.313</v>
+        <v>2708.467</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -22160,37 +22160,75 @@
         <v>43922</v>
       </c>
       <c r="B580">
-        <v>3368.077</v>
+        <v>3373.152</v>
       </c>
       <c r="C580">
-        <v>2985.903</v>
+        <v>2990.647</v>
       </c>
       <c r="D580">
         <v>213.528</v>
       </c>
       <c r="E580">
-        <v>2772.375</v>
+        <v>2777.119</v>
       </c>
       <c r="F580">
-        <v>5.729</v>
+        <v>5.732</v>
       </c>
       <c r="G580">
-        <v>193.28</v>
+        <v>193.401</v>
       </c>
       <c r="H580">
         <v>420.333</v>
       </c>
       <c r="I580">
-        <v>-227.053</v>
+        <v>-226.931</v>
       </c>
       <c r="J580">
-        <v>-305.362</v>
+        <v>-306.21</v>
       </c>
       <c r="K580">
-        <v>1.55</v>
+        <v>-2.219</v>
       </c>
       <c r="L580">
-        <v>2247.239</v>
+        <v>2247.49</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>3301.694</v>
+      </c>
+      <c r="C581">
+        <v>2925.001</v>
+      </c>
+      <c r="D581">
+        <v>212.018</v>
+      </c>
+      <c r="E581">
+        <v>2712.983</v>
+      </c>
+      <c r="F581">
+        <v>4.947</v>
+      </c>
+      <c r="G581">
+        <v>189.403</v>
+      </c>
+      <c r="H581">
+        <v>394.876</v>
+      </c>
+      <c r="I581">
+        <v>-205.472</v>
+      </c>
+      <c r="J581">
+        <v>-448.018</v>
+      </c>
+      <c r="K581">
+        <v>5.943</v>
+      </c>
+      <c r="L581">
+        <v>2070.382</v>
       </c>
     </row>
   </sheetData>
@@ -25027,16 +25065,16 @@
         <v>2741.641</v>
       </c>
       <c r="H83">
-        <v>4655.977</v>
+        <v>4656.312</v>
       </c>
       <c r="I83">
-        <v>-1914.336</v>
+        <v>-1914.67</v>
       </c>
       <c r="J83">
         <v>-499.719</v>
       </c>
       <c r="K83">
-        <v>-290.129</v>
+        <v>-289.794</v>
       </c>
       <c r="L83">
         <v>31014.345</v>
